--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_Deposits.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_Deposits.xlsx
@@ -20,9 +20,6 @@
     <sheet name="6M (2)" sheetId="30" r:id="rId11"/>
     <sheet name="1Y (2)" sheetId="31" r:id="rId12"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
   <definedNames>
     <definedName name="BondBasisDayCounter">'General Settings'!#REF!</definedName>
     <definedName name="Calendar">'General Settings'!#REF!</definedName>
@@ -52,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="38">
   <si>
     <t>Currency</t>
   </si>
@@ -164,6 +161,9 @@
   <si>
     <t>SN</t>
   </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
+  </si>
 </sst>
 </file>
 
@@ -177,7 +177,7 @@
     <numFmt numFmtId="168" formatCode="ddd\,\ d\-mmm\-yyyy\,\ hh:mm:ss"/>
     <numFmt numFmtId="169" formatCode="General_)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -745,22 +745,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1055,7 +1039,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.140625" style="11" customWidth="1"/>
     <col min="2" max="2" width="4.28515625" style="11" customWidth="1"/>
@@ -1066,13 +1050,13 @@
     <col min="7" max="16384" width="8" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="13.5" thickBot="1">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
         <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.75">
+    <row r="2" spans="1:22" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="13"/>
       <c r="B2" s="74" t="s">
         <v>13</v>
@@ -1081,14 +1065,14 @@
       <c r="D2" s="75"/>
       <c r="E2" s="76"/>
     </row>
-    <row r="3" spans="1:22" s="9" customFormat="1" ht="12.75">
+    <row r="3" spans="1:22" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="13"/>
       <c r="B3" s="17"/>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="18"/>
     </row>
-    <row r="4" spans="1:22" s="9" customFormat="1" ht="12.75">
+    <row r="4" spans="1:22" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="13"/>
       <c r="B4" s="17"/>
       <c r="C4" s="27" t="s">
@@ -1097,7 +1081,7 @@
       <c r="D4" s="28"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:22" s="9" customFormat="1" ht="12.75">
+    <row r="5" spans="1:22" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="13"/>
       <c r="B5" s="17"/>
       <c r="C5" s="27" t="s">
@@ -1108,7 +1092,7 @@
       </c>
       <c r="E5" s="19"/>
     </row>
-    <row r="6" spans="1:22" s="9" customFormat="1" ht="12.75">
+    <row r="6" spans="1:22" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="13"/>
       <c r="B6" s="17"/>
       <c r="C6" s="27" t="s">
@@ -1119,7 +1103,7 @@
       </c>
       <c r="E6" s="19"/>
     </row>
-    <row r="7" spans="1:22" s="9" customFormat="1" ht="12.75">
+    <row r="7" spans="1:22" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="13"/>
       <c r="B7" s="17"/>
       <c r="C7" s="27" t="s">
@@ -1130,19 +1114,18 @@
       </c>
       <c r="E7" s="19"/>
     </row>
-    <row r="8" spans="1:22" s="9" customFormat="1" ht="12.75">
+    <row r="8" spans="1:22" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="17"/>
       <c r="C8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="29" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
+      <c r="D8" s="29" t="s">
+        <v>37</v>
       </c>
       <c r="E8" s="19"/>
     </row>
-    <row r="9" spans="1:22" s="9" customFormat="1" ht="12.75">
+    <row r="9" spans="1:22" s="9" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="13"/>
       <c r="B9" s="17"/>
       <c r="C9" s="27" t="s">
@@ -1153,15 +1136,15 @@
       </c>
       <c r="E9" s="19"/>
     </row>
-    <row r="10" spans="1:22" s="9" customFormat="1" ht="13.5" thickBot="1">
+    <row r="10" spans="1:22" s="9" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="13"/>
       <c r="B10" s="20"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
       <c r="E10" s="22"/>
     </row>
-    <row r="11" spans="1:22" ht="12" thickBot="1"/>
-    <row r="12" spans="1:22" ht="15.75">
+    <row r="11" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:22" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="74" t="s">
         <v>23</v>
       </c>
@@ -1172,13 +1155,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="12.75">
+    <row r="13" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:22" ht="12.75">
+    <row r="14" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="23"/>
       <c r="C14" s="31" t="s">
         <v>0</v>
@@ -1191,7 +1174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:22" ht="12.75">
+    <row r="15" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="23"/>
       <c r="C15" s="31" t="s">
         <v>26</v>
@@ -1201,7 +1184,7 @@
       </c>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:22" ht="12.75">
+    <row r="16" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="23"/>
       <c r="C16" s="31" t="s">
         <v>19</v>
@@ -1211,7 +1194,7 @@
       </c>
       <c r="E16" s="24"/>
     </row>
-    <row r="17" spans="2:5" ht="13.5" thickBot="1">
+    <row r="17" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
@@ -1246,7 +1229,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
@@ -1258,7 +1241,7 @@
     <col min="8" max="8" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="46" t="s">
@@ -1275,7 +1258,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -1288,17 +1271,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>EUR_YC3M-MxRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>7</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="71" t="s">
         <v>36</v>
@@ -1322,7 +1305,7 @@
       </c>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="34" t="s">
         <v>25</v>
@@ -1349,7 +1332,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
@@ -1376,7 +1359,7 @@
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>2</v>
@@ -1403,7 +1386,7 @@
       </c>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="34" t="s">
         <v>3</v>
@@ -1430,7 +1413,7 @@
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="34" t="s">
         <v>4</v>
@@ -1457,7 +1440,7 @@
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="34" t="s">
         <v>5</v>
@@ -1484,7 +1467,7 @@
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" ht="13.5" thickBot="1">
+    <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1511,7 +1494,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
@@ -1523,7 +1506,7 @@
     <col min="8" max="8" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="46" t="s">
@@ -1540,7 +1523,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -1553,17 +1536,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>EUR_YC6M-MxRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F12,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>10</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="71" t="s">
         <v>36</v>
@@ -1587,7 +1570,7 @@
       </c>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="34" t="s">
         <v>25</v>
@@ -1614,7 +1597,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
@@ -1641,7 +1624,7 @@
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>2</v>
@@ -1668,7 +1651,7 @@
       </c>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="34" t="s">
         <v>3</v>
@@ -1695,7 +1678,7 @@
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="34" t="s">
         <v>4</v>
@@ -1722,7 +1705,7 @@
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="34" t="s">
         <v>5</v>
@@ -1749,7 +1732,7 @@
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="34" t="s">
         <v>6</v>
@@ -1776,7 +1759,7 @@
       </c>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="34" t="s">
         <v>7</v>
@@ -1803,7 +1786,7 @@
       </c>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="34" t="s">
         <v>8</v>
@@ -1830,7 +1813,7 @@
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="13.5" thickBot="1">
+    <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1857,7 +1840,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
@@ -1869,7 +1852,7 @@
     <col min="8" max="8" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="46" t="s">
@@ -1886,7 +1869,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -1899,17 +1882,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>EUR_YC1Y-MxRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>16</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="71" t="s">
         <v>36</v>
@@ -1933,7 +1916,7 @@
       </c>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="34" t="s">
         <v>25</v>
@@ -1960,7 +1943,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
@@ -1987,7 +1970,7 @@
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>2</v>
@@ -2014,7 +1997,7 @@
       </c>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="34" t="s">
         <v>3</v>
@@ -2041,7 +2024,7 @@
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="34" t="s">
         <v>4</v>
@@ -2068,7 +2051,7 @@
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="34" t="s">
         <v>5</v>
@@ -2095,7 +2078,7 @@
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="34" t="s">
         <v>6</v>
@@ -2122,7 +2105,7 @@
       </c>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="34" t="s">
         <v>7</v>
@@ -2149,7 +2132,7 @@
       </c>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="34" t="s">
         <v>8</v>
@@ -2176,7 +2159,7 @@
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="34" t="s">
         <v>29</v>
@@ -2203,7 +2186,7 @@
       </c>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="34" t="s">
         <v>30</v>
@@ -2230,7 +2213,7 @@
       </c>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="34" t="s">
         <v>9</v>
@@ -2257,7 +2240,7 @@
       </c>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="34" t="s">
         <v>31</v>
@@ -2284,7 +2267,7 @@
       </c>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="34" t="s">
         <v>32</v>
@@ -2311,7 +2294,7 @@
       </c>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="34" t="s">
         <v>10</v>
@@ -2338,7 +2321,7 @@
       </c>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8" ht="13.5" thickBot="1">
+    <row r="19" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -2365,7 +2348,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="53" customWidth="1"/>
     <col min="2" max="2" width="4" style="53" bestFit="1" customWidth="1"/>
@@ -2378,7 +2361,7 @@
     <col min="9" max="16384" width="9.140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="47"/>
       <c r="B1" s="48"/>
       <c r="C1" s="48"/>
@@ -2393,7 +2376,7 @@
       <c r="G1" s="51"/>
       <c r="H1" s="52"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="54"/>
       <c r="B2" s="55"/>
       <c r="C2" s="55" t="s">
@@ -2406,17 +2389,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>EUR_YCSTDRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="57">
+      <c r="F2" s="57" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>16</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="58" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="52"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="54"/>
       <c r="B3" s="59" t="s">
         <v>24</v>
@@ -2442,7 +2425,7 @@
       </c>
       <c r="H3" s="52"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="54"/>
       <c r="B4" s="64" t="s">
         <v>25</v>
@@ -2469,7 +2452,7 @@
       </c>
       <c r="H4" s="52"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="54"/>
       <c r="B5" s="64" t="s">
         <v>1</v>
@@ -2496,7 +2479,7 @@
       </c>
       <c r="H5" s="52"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="54"/>
       <c r="B6" s="64" t="s">
         <v>2</v>
@@ -2523,7 +2506,7 @@
       </c>
       <c r="H6" s="52"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="54"/>
       <c r="B7" s="64" t="s">
         <v>3</v>
@@ -2550,7 +2533,7 @@
       </c>
       <c r="H7" s="52"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="54"/>
       <c r="B8" s="64" t="s">
         <v>4</v>
@@ -2577,7 +2560,7 @@
       </c>
       <c r="H8" s="52"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="54"/>
       <c r="B9" s="64" t="s">
         <v>5</v>
@@ -2604,7 +2587,7 @@
       </c>
       <c r="H9" s="52"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="54"/>
       <c r="B10" s="64" t="s">
         <v>6</v>
@@ -2631,7 +2614,7 @@
       </c>
       <c r="H10" s="52"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="54"/>
       <c r="B11" s="64" t="s">
         <v>7</v>
@@ -2658,7 +2641,7 @@
       </c>
       <c r="H11" s="52"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="54"/>
       <c r="B12" s="64" t="s">
         <v>8</v>
@@ -2685,7 +2668,7 @@
       </c>
       <c r="H12" s="52"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="54"/>
       <c r="B13" s="64" t="s">
         <v>29</v>
@@ -2712,7 +2695,7 @@
       </c>
       <c r="H13" s="52"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="54"/>
       <c r="B14" s="64" t="s">
         <v>30</v>
@@ -2739,7 +2722,7 @@
       </c>
       <c r="H14" s="52"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="54"/>
       <c r="B15" s="64" t="s">
         <v>9</v>
@@ -2766,7 +2749,7 @@
       </c>
       <c r="H15" s="52"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="54"/>
       <c r="B16" s="64" t="s">
         <v>31</v>
@@ -2793,7 +2776,7 @@
       </c>
       <c r="H16" s="52"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="54"/>
       <c r="B17" s="64" t="s">
         <v>32</v>
@@ -2820,7 +2803,7 @@
       </c>
       <c r="H17" s="52"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="54"/>
       <c r="B18" s="64" t="s">
         <v>10</v>
@@ -2847,7 +2830,7 @@
       </c>
       <c r="H18" s="52"/>
     </row>
-    <row r="19" spans="1:8" ht="14.25" thickBot="1">
+    <row r="19" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="67"/>
       <c r="B19" s="68"/>
       <c r="C19" s="68"/>
@@ -2874,7 +2857,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
@@ -2886,7 +2869,7 @@
     <col min="8" max="8" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2899,7 +2882,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -2912,17 +2895,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>EUR_YCRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="34" t="s">
         <v>24</v>
@@ -2948,7 +2931,7 @@
       </c>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8" ht="13.5" thickBot="1">
+    <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2975,7 +2958,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
@@ -2987,7 +2970,7 @@
     <col min="8" max="8" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3002,7 +2985,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -3015,17 +2998,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>EUR_YCONRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>1</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="34" t="s">
         <v>24</v>
@@ -3051,7 +3034,7 @@
       </c>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8" ht="13.5" thickBot="1">
+    <row r="4" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -3078,7 +3061,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="40" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="40" bestFit="1" customWidth="1"/>
@@ -3091,7 +3074,7 @@
     <col min="9" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3104,7 +3087,7 @@
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -3117,17 +3100,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>EUR_YC1MRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F7,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>5</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="71" t="s">
         <v>36</v>
@@ -3151,7 +3134,7 @@
       </c>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="34" t="s">
         <v>25</v>
@@ -3178,7 +3161,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
@@ -3205,7 +3188,7 @@
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>2</v>
@@ -3232,7 +3215,7 @@
       </c>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="34" t="s">
         <v>3</v>
@@ -3259,7 +3242,7 @@
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" ht="12" thickBot="1">
+    <row r="8" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -3286,7 +3269,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
@@ -3298,7 +3281,7 @@
     <col min="8" max="8" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3313,7 +3296,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -3326,17 +3309,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>EUR_YC3MRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>7</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="71" t="s">
         <v>36</v>
@@ -3360,7 +3343,7 @@
       </c>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="34" t="s">
         <v>25</v>
@@ -3387,7 +3370,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
@@ -3414,7 +3397,7 @@
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>2</v>
@@ -3441,7 +3424,7 @@
       </c>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="34" t="s">
         <v>3</v>
@@ -3468,7 +3451,7 @@
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="34" t="s">
         <v>4</v>
@@ -3495,7 +3478,7 @@
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="34" t="s">
         <v>5</v>
@@ -3522,7 +3505,7 @@
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" ht="13.5" thickBot="1">
+    <row r="10" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -3549,7 +3532,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" bestFit="1" customWidth="1"/>
@@ -3561,7 +3544,7 @@
     <col min="8" max="8" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3576,7 +3559,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -3589,17 +3572,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>EUR_YC6MRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F12,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>10</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="71" t="s">
         <v>36</v>
@@ -3623,7 +3606,7 @@
       </c>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="34" t="s">
         <v>25</v>
@@ -3650,7 +3633,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
@@ -3677,7 +3660,7 @@
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>2</v>
@@ -3704,7 +3687,7 @@
       </c>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="34" t="s">
         <v>3</v>
@@ -3731,7 +3714,7 @@
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="34" t="s">
         <v>4</v>
@@ -3758,7 +3741,7 @@
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="34" t="s">
         <v>5</v>
@@ -3785,7 +3768,7 @@
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="34" t="s">
         <v>6</v>
@@ -3812,7 +3795,7 @@
       </c>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="34" t="s">
         <v>7</v>
@@ -3839,7 +3822,7 @@
       </c>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="34" t="s">
         <v>8</v>
@@ -3866,7 +3849,7 @@
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" ht="13.5" thickBot="1">
+    <row r="13" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -3893,7 +3876,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
@@ -3905,7 +3888,7 @@
     <col min="8" max="8" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3920,7 +3903,7 @@
       <c r="G1" s="40"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -3933,17 +3916,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>EUR_YC1YRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>16</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="71" t="s">
         <v>36</v>
@@ -3967,7 +3950,7 @@
       </c>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="34" t="s">
         <v>25</v>
@@ -3994,7 +3977,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
@@ -4021,7 +4004,7 @@
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>2</v>
@@ -4048,7 +4031,7 @@
       </c>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="34" t="s">
         <v>3</v>
@@ -4075,7 +4058,7 @@
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="34" t="s">
         <v>4</v>
@@ -4102,7 +4085,7 @@
       </c>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="34" t="s">
         <v>5</v>
@@ -4129,7 +4112,7 @@
       </c>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="34" t="s">
         <v>6</v>
@@ -4156,7 +4139,7 @@
       </c>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="34" t="s">
         <v>7</v>
@@ -4183,7 +4166,7 @@
       </c>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="34" t="s">
         <v>8</v>
@@ -4210,7 +4193,7 @@
       </c>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="34" t="s">
         <v>29</v>
@@ -4237,7 +4220,7 @@
       </c>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="34" t="s">
         <v>30</v>
@@ -4264,7 +4247,7 @@
       </c>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="34" t="s">
         <v>9</v>
@@ -4291,7 +4274,7 @@
       </c>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="34" t="s">
         <v>31</v>
@@ -4318,7 +4301,7 @@
       </c>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="34" t="s">
         <v>32</v>
@@ -4345,7 +4328,7 @@
       </c>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="34" t="s">
         <v>10</v>
@@ -4372,7 +4355,7 @@
       </c>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8" ht="13.5" thickBot="1">
+    <row r="19" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -4399,7 +4382,7 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="40" customWidth="1"/>
     <col min="2" max="2" width="3.42578125" style="40" bestFit="1" customWidth="1"/>
@@ -4412,7 +4395,7 @@
     <col min="9" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="46" t="s">
@@ -4427,7 +4410,7 @@
       </c>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="23.25" customHeight="1">
+    <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="36"/>
       <c r="C2" s="36" t="s">
@@ -4440,17 +4423,17 @@
         <f>$E$1&amp;"_Deposits.xml"</f>
         <v>EUR_YC1M-MxRH_Deposits.xml</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="38" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F7,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>5</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="39" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
         <v/>
       </c>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="71" t="s">
         <v>36</v>
@@ -4474,7 +4457,7 @@
       </c>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="34" t="s">
         <v>25</v>
@@ -4501,7 +4484,7 @@
       </c>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="34" t="s">
         <v>1</v>
@@ -4528,7 +4511,7 @@
       </c>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="34" t="s">
         <v>2</v>
@@ -4555,7 +4538,7 @@
       </c>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="34" t="s">
         <v>3</v>
@@ -4582,7 +4565,7 @@
       </c>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" ht="12" thickBot="1">
+    <row r="8" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_Deposits.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/020_RateHelpers/EUR_YCRH_Deposits.xlsx
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="37">
   <si>
     <t>Currency</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>SN</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1120,8 +1117,9 @@
       <c r="C8" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>37</v>
+      <c r="D8" s="29" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\020_RateHelpers\</v>
       </c>
       <c r="E8" s="19"/>
     </row>
@@ -1272,12 +1270,12 @@
         <v>EUR_YC3M-MxRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1537,12 +1535,12 @@
         <v>EUR_YC6M-MxRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F12,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F12,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -1883,12 +1881,12 @@
         <v>EUR_YC1Y-MxRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2390,12 +2388,12 @@
         <v>EUR_YCSTDRH_Deposits.xml</v>
       </c>
       <c r="F2" s="57" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="58" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="58" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="52"/>
     </row>
@@ -2896,12 +2894,12 @@
         <v>EUR_YCRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -2999,12 +2997,12 @@
         <v>EUR_YCONRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -3101,12 +3099,12 @@
         <v>EUR_YC1MRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F7,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F7,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -3310,12 +3308,12 @@
         <v>EUR_YC3MRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -3573,12 +3571,12 @@
         <v>EUR_YC6MRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F12,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F12,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -3917,12 +3915,12 @@
         <v>EUR_YC1YRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F18,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
@@ -4424,12 +4422,12 @@
         <v>EUR_YC1M-MxRH_Deposits.xml</v>
       </c>
       <c r="F2" s="38" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F7,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="39" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F7,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="39" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="16"/>
     </row>
